--- a/Auditoria PEx - Item 10.xlsx
+++ b/Auditoria PEx - Item 10.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalymc.sharepoint.com/sites/YMCDA_Teams_TPM_Manaus/Shared Documents/Excelência Operacional/Falconi/Book HS/Item 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE7B925-F07B-49DC-BAE5-CCB53D6ECFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_0B37A46B4F217C74A9672EF31372AD8495046726" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D35A44-E7F5-4656-AC33-7733D14365AD}"/>
   <bookViews>
-    <workbookView xWindow="-21250" yWindow="5110" windowWidth="14400" windowHeight="7270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21250" yWindow="5110" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Formulário YM - HS" sheetId="2" r:id="rId1"/>
-    <sheet name="Formulário YM " sheetId="3" r:id="rId2"/>
+    <sheet name="Formulário YM" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="\zxc" hidden="1">{#N/A,#N/A,FALSE,"Cronograma 3";#N/A,#N/A,FALSE,"Cronograma 2";#N/A,#N/A,FALSE,"Cronograma 1"}</definedName>
@@ -68,8 +67,7 @@
     <definedName name="_bat67" hidden="1">{#N/A,#N/A,FALSE,"Tabl. D1";#N/A,#N/A,FALSE,"Tabl. D1 b";#N/A,#N/A,FALSE,"Tabl. D2";#N/A,#N/A,FALSE,"Tabl. D2 b";#N/A,#N/A,FALSE,"Tabl. D3";#N/A,#N/A,FALSE,"Tabl. D4";#N/A,#N/A,FALSE,"Tabl. D5"}</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill2" hidden="1">[3]REAC1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formulário YM - HS'!$B$9:$C$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Formulário YM '!$B$9:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formulário YM'!$B$9:$C$17</definedName>
     <definedName name="_g111" hidden="1">{#N/A,#N/A,FALSE,"PREÇO.CPV.CA60";#N/A,#N/A,FALSE,"PREÇO.CPV.TREFILADOS";#N/A,#N/A,FALSE,"PREÇO.CPV.CA50";#N/A,#N/A,FALSE,"PREÇO.CPV.FM";#N/A,#N/A,FALSE,"PREÇO-FOB"}</definedName>
     <definedName name="_GFO1" hidden="1">{#N/A,#N/A,FALSE,"Cronograma 3";#N/A,#N/A,FALSE,"Cronograma 2";#N/A,#N/A,FALSE,"Cronograma 1"}</definedName>
     <definedName name="_GFO2" hidden="1">{#N/A,#N/A,FALSE,"Cronograma 3";#N/A,#N/A,FALSE,"Cronograma 2";#N/A,#N/A,FALSE,"Cronograma 1"}</definedName>
@@ -158,10 +156,8 @@
     <definedName name="andre" hidden="1">{#N/A,#N/A,FALSE,"Tabl. FB300";#N/A,#N/A,FALSE,"Tabl. FB350";#N/A,#N/A,FALSE,"Tabl. FB400";#N/A,#N/A,FALSE,"Tabl. FB500";#N/A,#N/A,FALSE,"Tabl. FS090"}</definedName>
     <definedName name="anscount" hidden="1">3</definedName>
     <definedName name="APOIO" hidden="1">{"APOIO",#N/A,FALSE,"Obras"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formulário YM - HS'!$B$2:$I$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Formulário YM '!$B$2:$I$17</definedName>
-    <definedName name="areas" localSheetId="0">OFFSET(#REF!,MATCH('Formulário YM - HS'!#REF!,#REF!,0),0,COUNTIF(#REF!,'Formulário YM - HS'!#REF!))</definedName>
-    <definedName name="areas" localSheetId="1">OFFSET(#REF!,MATCH('Formulário YM '!#REF!,#REF!,0),0,COUNTIF(#REF!,'Formulário YM '!#REF!))</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formulário YM'!$B$2:$I$17</definedName>
+    <definedName name="areas" localSheetId="0">OFFSET(#REF!,MATCH('Formulário YM'!#REF!,#REF!,0),0,COUNTIF(#REF!,'Formulário YM'!#REF!))</definedName>
     <definedName name="areas">OFFSET(#REF!,MATCH(#REF!,#REF!,0),0,COUNTIF(#REF!,#REF!))</definedName>
     <definedName name="ASD" hidden="1">{#N/A,#N/A,FALSE,"Cronograma 3";#N/A,#N/A,FALSE,"Cronograma 2";#N/A,#N/A,FALSE,"Cronograma 1"}</definedName>
     <definedName name="asdasda" hidden="1">[1]COMPPROD!#REF!</definedName>
@@ -283,8 +279,7 @@
     <definedName name="GD" hidden="1">{#N/A,#N/A,FALSE,"지침";#N/A,#N/A,FALSE,"환경분석";#N/A,#N/A,FALSE,"Sheet16"}</definedName>
     <definedName name="ge" hidden="1">{"MULTIPLICAÇÃO",#N/A,FALSE,"Obras"}</definedName>
     <definedName name="gerenciador" hidden="1">{"AVÓS",#N/A,FALSE,"Obras"}</definedName>
-    <definedName name="gerencias" localSheetId="0">OFFSET(#REF!,MATCH('Formulário YM - HS'!#REF!,#REF!,0),0,COUNTIF(#REF!,'Formulário YM - HS'!#REF!))</definedName>
-    <definedName name="gerencias" localSheetId="1">OFFSET(#REF!,MATCH('Formulário YM '!#REF!,#REF!,0),0,COUNTIF(#REF!,'Formulário YM '!#REF!))</definedName>
+    <definedName name="gerencias" localSheetId="0">OFFSET(#REF!,MATCH('Formulário YM'!#REF!,#REF!,0),0,COUNTIF(#REF!,'Formulário YM'!#REF!))</definedName>
     <definedName name="gerencias">OFFSET(#REF!,MATCH(#REF!,#REF!,0),0,COUNTIF(#REF!,#REF!))</definedName>
     <definedName name="gfdgd" hidden="1">{#N/A,#N/A,FALSE,"PAG16";#N/A,#N/A,FALSE,"PAG15";#N/A,#N/A,FALSE,"PAG14";#N/A,#N/A,FALSE,"PAG13";#N/A,#N/A,FALSE,"PAG12";#N/A,#N/A,FALSE,"PAG11";#N/A,#N/A,FALSE,"PAG10";#N/A,#N/A,FALSE,"PAG09";#N/A,#N/A,FALSE,"PAG08";#N/A,#N/A,FALSE,"PAG07";#N/A,#N/A,FALSE,"PAG06";#N/A,#N/A,FALSE,"PAG05";#N/A,#N/A,FALSE,"PAG04";#N/A,#N/A,FALSE,"PAG03";#N/A,#N/A,FALSE,"PAG02";#N/A,#N/A,FALSE,"PAG01";#N/A,#N/A,FALSE,"Índice";#N/A,#N/A,FALSE,"CAPA"}</definedName>
     <definedName name="gfdy" hidden="1">{#N/A,#N/A,FALSE,"지침";#N/A,#N/A,FALSE,"환경분석";#N/A,#N/A,FALSE,"Sheet16"}</definedName>
@@ -488,8 +483,7 @@
     <definedName name="te" hidden="1">{"MELHORAMENTO GENÉTICO",#N/A,FALSE,"Obras"}</definedName>
     <definedName name="teds" hidden="1">{"'RR'!$A$2:$E$81"}</definedName>
     <definedName name="tfr" hidden="1">{#N/A,#N/A,TRUE,"K2 e MEIA";#N/A,#N/A,TRUE,"K3";#N/A,#N/A,TRUE,"K4";#N/A,#N/A,TRUE,"PERFIL U";#N/A,#N/A,TRUE,"BCHA"}</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Formulário YM - HS'!$2:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Formulário YM '!$2:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Formulário YM'!$2:$4</definedName>
     <definedName name="tr" hidden="1">{"MELHORAMENTO GENÉTICO",#N/A,FALSE,"Obras"}</definedName>
     <definedName name="Tratorito" hidden="1">{"MATRIZES",#N/A,FALSE,"Obras"}</definedName>
     <definedName name="tratoritos" hidden="1">{"AVÓS",#N/A,FALSE,"Obras"}</definedName>
@@ -658,7 +652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Verificação de Conformidade - Pilar Excelência Operacional</t>
   </si>
@@ -699,83 +693,80 @@
     <t>Comentários</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Item 10 - Comunicação no Local de Trabalho</t>
+  </si>
+  <si>
+    <t>Os métodos para promover a comunicação interna no local de trabalho foram definidos?</t>
+  </si>
+  <si>
+    <t>Os métodos para melhorar a comunicação interna são explicados de forma clara, compartilhados e compreendidos pelos membros?</t>
+  </si>
+  <si>
+    <t>As atividades baseadas nos métodos definidos para comunicação interna estão sendo implementadas?</t>
+  </si>
+  <si>
+    <t>É possível verificar se as atividades de comunicação estão sendo mantidas corretamente por meio de patrulhas ou controles do líder?</t>
+  </si>
+  <si>
+    <t>Quando há problemas, as medidas corretivas são tomadas rapidamente?</t>
+  </si>
+  <si>
+    <t>Os métodos de comunicação interna são revisados regularmente e melhorias são implementadas?</t>
+  </si>
+  <si>
+    <t>É possível identificar causas fundamentais dos problemas com base nos registros?</t>
   </si>
   <si>
     <t>10.1</t>
   </si>
   <si>
-    <t>Os métodos para promover a comunicação interna no local de trabalho foram definidos?</t>
+    <t>10.2</t>
   </si>
   <si>
-    <t>-</t>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
   </si>
   <si>
     <t>Existe documento ou padrão que define claramente os métodos para comunicação interna</t>
   </si>
   <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>Os métodos para melhorar a comunicação interna são explicados de forma clara, compartilhados e compreendidos pelos membros?</t>
-  </si>
-  <si>
     <t>Evidências de comunicação (treinamentos, reuniões, materiais visuais) e registro de entendimento compartilhado</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>As atividades baseadas nos métodos definidos para comunicação interna estão sendo implementadas?</t>
   </si>
   <si>
     <t>Registros de execução das atividades (checklists, relatórios, evidências fotográficas)</t>
   </si>
   <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>É possível verificar se as atividades de comunicação estão sendo mantidas corretamente por meio de patrulhas ou controles do líder?</t>
-  </si>
-  <si>
     <t>Registros de patrulhas, auditorias ou controles periódicos realizados pelo líder</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>Quando há problemas, as medidas corretivas são tomadas rapidamente?</t>
   </si>
   <si>
     <t>Evidências de correção imediata (tempo de resposta, registros de ações corretivas)</t>
   </si>
   <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>Os métodos de comunicação interna são revisados regularmente e melhorias são implementadas?</t>
-  </si>
-  <si>
     <t>Histórico de revisões dos métodos e registros de melhorias aplicadas</t>
   </si>
   <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>É possível identificar causas fundamentais dos problemas com base nos registros?</t>
-  </si>
-  <si>
     <t>Registros de análise de causa raiz e ações para eliminar causas fundamentais</t>
-  </si>
-  <si>
-    <t>Os métodos de comunicação interna para incentivar comunicação fluida no local de trabalho estão definidos de forma clara?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,24 +834,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -950,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1022,18 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1467,445 +1428,6 @@
         <a:xfrm>
           <a:off x="358589" y="201706"/>
           <a:ext cx="1807084" cy="388471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA36F1A-C112-4F47-9117-4D93E4607597}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="485775" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4F2B3A-D215-48A1-AA40-42C8FE8338F7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FCA36F1A-C112-4F47-9117-4D93E4607597}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="485775" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EFA04C-2AAD-4085-8EF4-3643EB058700}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CB4F2B3A-D215-48A1-AA40-42C8FE8338F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="485775" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F6474B-8586-46DA-AEF6-235B8D5C7742}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{30EFA04C-2AAD-4085-8EF4-3643EB058700}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1743075" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FEC608-89C0-4CA0-8156-CA9D633DD552}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86F6474B-8586-46DA-AEF6-235B8D5C7742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="485775" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922F3145-4E86-4E8B-8443-70730698F56A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{39FEC608-89C0-4CA0-8156-CA9D633DD552}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="485775" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17760680-80C3-4817-B85B-DB0A8060396F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{922F3145-4E86-4E8B-8443-70730698F56A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="485775" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811C561A-433B-45F5-B593-704403DD7E52}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{17760680-80C3-4817-B85B-DB0A8060396F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1743075" y="942975"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="sq">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>559497</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F28712D-B1F2-4BF2-824C-B8273F8FC545}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{811C561A-433B-45F5-B593-704403DD7E52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="343461" y="202640"/>
-          <a:ext cx="1749561" cy="382868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12686,47 +12208,47 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="0" customHeight="1" zeroHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="0" customHeight="1" zeroHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="64.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.5703125" style="1"/>
+    <col min="9" max="9" width="64.81640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.45" customHeight="1"/>
-    <row r="2" spans="1:9" ht="23.1" customHeight="1">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12735,7 +12257,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
@@ -12746,12 +12268,12 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="8.4499999999999993" customHeight="1">
+    <row r="6" spans="1:9" ht="8.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="s">
@@ -12762,7 +12284,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12770,7 +12292,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="40.35" customHeight="1">
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="40.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
@@ -12796,22 +12318,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="40.35" customHeight="1">
-      <c r="B10" s="33" t="s">
-        <v>13</v>
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="40.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
+        <v>14</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" ht="51.75" customHeight="1" outlineLevel="4">
+    <row r="11" spans="1:9" s="25" customFormat="1" ht="51.75" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -12820,127 +12342,127 @@
         <v>15</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="56.45" customHeight="1">
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19">
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="19">
         <v>3</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19">
         <v>4</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19">
         <v>4</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="19">
         <v>5</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="2:9" s="8" customFormat="1" ht="62.1" customHeight="1">
+    <row r="17" spans="2:9" s="8" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C17" s="19">
         <v>5</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>35</v>
@@ -12973,323 +12495,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346BFEB3-FBFB-4587-ACC6-339CA7586EEE}">
-  <sheetPr>
-    <tabColor indexed="44"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="0" customHeight="1" zeroHeight="1" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="64.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.5703125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="11.45" customHeight="1"/>
-    <row r="2" spans="1:9" ht="23.1" customHeight="1">
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="8.4499999999999993" customHeight="1">
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="40.35" customHeight="1">
-      <c r="B9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="40.35" customHeight="1">
-      <c r="B10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" ht="51.75" customHeight="1" outlineLevel="4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="27">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
-      <c r="B13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="27">
-        <v>3</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
-      <c r="B14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="27">
-        <v>4</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
-      <c r="B15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="27">
-        <v>4</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="62.1" customHeight="1">
-      <c r="B16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="27">
-        <v>5</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="2:9" s="8" customFormat="1" ht="62.1" customHeight="1">
-      <c r="B17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="27">
-        <v>5</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:I3"/>
-    <mergeCell ref="B10:I10"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{EAE751E1-7E6B-4F24-AC17-A890D8DE912B}">
-      <formula1>areas</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.23622047244094491" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Regular"&amp;01&amp;K000000 </oddHeader>
-    <oddFooter>&amp;L&amp;F&amp;A&amp;CSeite &amp;P/&amp;N&amp;RP1L, &amp;D</oddFooter>
-    <evenHeader>&amp;L&amp;"Times New Roman,Regular"&amp;01&amp;K000000 </evenHeader>
-    <firstHeader>&amp;L&amp;"Times New Roman,Regular"&amp;01&amp;K000000 </firstHeader>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8bb22378-7fc4-4e1f-ad95-d9d7f287c689" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d1e14d1f-6737-4717-9a54-76061b14ff36">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="06b056e2-7ddb-4f31-a510-f19fdcc3f692" origin="userSelected">
-  <element uid="id_classification_nonbusiness" value=""/>
-</sisl>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100070A15B66167D24EAAD18E085C75F585" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="eebf29b5245538cf4a4377f201a32265">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1e14d1f-6737-4717-9a54-76061b14ff36" xmlns:ns3="8bb22378-7fc4-4e1f-ad95-d9d7f287c689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eadcf03b36e1a58f8fa4d0e68aa8834b" ns2:_="" ns3:_="">
-    <xsd:import namespace="d1e14d1f-6737-4717-9a54-76061b14ff36"/>
-    <xsd:import namespace="8bb22378-7fc4-4e1f-ad95-d9d7f287c689"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA176F216EECD943AD612D627F07C02E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac7417f42595b9c582a0fec2649769cd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="127a3897-ed4c-4826-8a6c-94d3406a8d6d" xmlns:ns3="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b698d48ff9cc4d83b9327d7565313e0" ns2:_="" ns3:_="">
+    <xsd:import namespace="127a3897-ed4c-4826-8a6c-94d3406a8d6d"/>
+    <xsd:import namespace="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -13299,6 +12509,9 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
@@ -13314,7 +12527,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1e14d1f-6737-4717-9a54-76061b14ff36" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="127a3897-ed4c-4826-8a6c-94d3406a8d6d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -13332,50 +12545,81 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5b22907b-34fb-49f8-afaa-e6cbea11389b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5d8d8cb3-13e6-4a9b-b8ca-c05e8e4559a2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceBillingMetadata" ma:index="19" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8bb22378-7fc4-4e1f-ad95-d9d7f287c689" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{83bd2831-286b-4b48-8cd3-a40eff20d284}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8bb22378-7fc4-4e1f-ad95-d9d7f287c689">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1753cf45-de07-4b4e-adb5-ff0f4ef5cc6a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -13396,8 +12640,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13486,7 +12730,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13495,18 +12739,66 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="127a3897-ed4c-4826-8a6c-94d3406a8d6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="06b056e2-7ddb-4f31-a510-f19fdcc3f692" origin="userSelected">
+  <element uid="id_classification_nonbusiness" value=""/>
+</sisl>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370530D8-18A0-4ADB-B8A0-95B130D6D938}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E008F7F9-8FA7-42F8-BADD-3E2C6F76D46B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="127a3897-ed4c-4826-8a6c-94d3406a8d6d"/>
+    <ds:schemaRef ds:uri="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3DE8FD7-0096-42BD-9A0F-B3403F74F2DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0E8C6E0-6876-4F72-8348-4FE26C7BB477}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F2F1E2-772E-46CC-8EFA-29CBB9EFA81C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370530D8-18A0-4ADB-B8A0-95B130D6D938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf2b92c1-a898-4550-bc40-7eb2dd1d90a8"/>
+    <ds:schemaRef ds:uri="127a3897-ed4c-4826-8a6c-94d3406a8d6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0E8C6E0-6876-4F72-8348-4FE26C7BB477}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3DE8FD7-0096-42BD-9A0F-B3403F74F2DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>